--- a/xls/work_classification_grouped_visualization.xlsx
+++ b/xls/work_classification_grouped_visualization.xlsx
@@ -470,8 +470,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337051360"/>
-        <c:axId val="337051920"/>
+        <c:axId val="301687440"/>
+        <c:axId val="301685760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -564,7 +564,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337051360"/>
+        <c:axId val="301687440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337051920"/>
+        <c:crossAx val="301685760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337051920"/>
+        <c:axId val="301685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337051360"/>
+        <c:crossAx val="301687440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/xls/work_classification_grouped_visualization.xlsx
+++ b/xls/work_classification_grouped_visualization.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="39">
   <si>
     <t>Subject Work Classification</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Date Cited</t>
   </si>
   <si>
-    <t>Creative Prose Works</t>
-  </si>
-  <si>
-    <t>creative prose works</t>
-  </si>
-  <si>
     <t>works of poetry</t>
   </si>
   <si>
@@ -96,13 +90,64 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>literary prose works</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>dramatic works</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>No Classification</t>
+  </si>
+  <si>
+    <t>no classification</t>
+  </si>
+  <si>
+    <t>folk literature</t>
+  </si>
+  <si>
+    <t>historical novel</t>
+  </si>
+  <si>
+    <t>periodicals</t>
+  </si>
+  <si>
+    <t>poetry (1950-1969)</t>
+  </si>
+  <si>
+    <t>popular poetry</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>war fiction</t>
+  </si>
+  <si>
+    <t>Dramatic Works</t>
+  </si>
+  <si>
+    <t>Literary Prose Works</t>
+  </si>
+  <si>
+    <t>Periodicals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +157,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -137,13 +195,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,8 +260,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Type of Work by Year</a:t>
+              <a:t>General</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Work Type by Year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -243,11 +312,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>work_classification_grouped_vis!$H$2</c:f>
+              <c:f>work_classification_grouped_vis!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cited 1950</c:v>
+                  <c:v>Critical Prose Works</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -267,21 +336,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$G$3:$G$6</c15:sqref>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>work_classification_grouped_vis!$G$3:$G$5</c:f>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Creative Prose Works</c:v>
+                  <c:v>Cited 1950</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Critical Prose Works</c:v>
+                  <c:v>Cited 1980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Works of Poetry</c:v>
+                  <c:v>Cited 2010</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -291,96 +360,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$H$3:$H$6</c15:sqref>
+                    <c15:sqref>work_classification_grouped_vis!$H$3:$K$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>work_classification_grouped_vis!$H$3:$H$5</c:f>
+              <c:f>work_classification_grouped_vis!$H$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>work_classification_grouped_vis!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cited 1980</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$G$3:$G$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>work_classification_grouped_vis!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Creative Prose Works</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Critical Prose Works</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Works of Poetry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$I$3:$I$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>work_classification_grouped_vis!$I$3:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,11 +386,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>work_classification_grouped_vis!$J$2</c:f>
+              <c:f>work_classification_grouped_vis!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cited 2010</c:v>
+                  <c:v>Literary Prose Works</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,21 +410,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$G$3:$G$6</c15:sqref>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>work_classification_grouped_vis!$G$3:$G$5</c:f>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Creative Prose Works</c:v>
+                  <c:v>Cited 1950</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Critical Prose Works</c:v>
+                  <c:v>Cited 1980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Works of Poetry</c:v>
+                  <c:v>Cited 2010</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,22 +434,170 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>work_classification_grouped_vis!$J$3:$J$6</c15:sqref>
+                    <c15:sqref>work_classification_grouped_vis!$H$5:$K$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>work_classification_grouped_vis!$J$3:$J$5</c:f>
+              <c:f>work_classification_grouped_vis!$H$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>work_classification_grouped_vis!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Works of Poetry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>work_classification_grouped_vis!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$8:$K$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,10 +613,96 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301687440"/>
-        <c:axId val="301685760"/>
+        <c:axId val="397877488"/>
+        <c:axId val="397883088"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dramatic Works</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$4:$K$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$4:$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="3"/>
@@ -481,16 +710,16 @@
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$K$2</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total</c:v>
+                        <c:v>Periodicals</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -508,25 +737,25 @@
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$G$3:$G$6</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$G$3:$G$5</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$J$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Creative Prose Works</c:v>
+                        <c:v>Cited 1950</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Critical Prose Works</c:v>
+                        <c:v>Cited 1980</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Works of Poetry</c:v>
+                        <c:v>Cited 2010</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -534,12 +763,100 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$K$3:$K$6</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$H$6:$K$6</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$K$3:$K$5</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$H$6:$J$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$2:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$9:$K$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>work_classification_grouped_vis!$H$9:$J$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -550,10 +867,10 @@
                         <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10</c:v>
+                        <c:v>39</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>12</c:v>
+                        <c:v>35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -564,7 +881,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301687440"/>
+        <c:axId val="397877488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301685760"/>
+        <c:crossAx val="397883088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301685760"/>
+        <c:axId val="397883088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301687440"/>
+        <c:crossAx val="397877488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,19 +1612,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1588,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,854 +1919,1486 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3">
+        <f>COUNTIF(C2:C47,"critical prose works")</f>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(C48:C86,"critical prose works")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C87:C121, "critical prose works")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUM(H3:J3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <f>COUNTIF(C2:C47,"dramatic works")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f>COUNTIF(C48:C86,"dramatic works")</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <f>COUNTIF(C87:C121, "dramatic works")</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K9" si="0">SUM(H4:J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2">
+        <f>COUNTIF(C2:C47,"literary prose works")</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <f>COUNTIF(C48:C86,"literary prose works")</f>
+        <v>27</v>
+      </c>
+      <c r="J5" s="2">
+        <f>COUNTIF(C87:C121, "literary prose works")</f>
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2">
+        <f>COUNTIF(C2:C47,"periodicals")</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>COUNTIF(C48:C86,"periodicals")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f>COUNTIF(C87:C121, "periodicals")</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H7">
+        <f>COUNTIF(C2:C47,"works of poetry")</f>
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIF(C48:C86,"works of poetry")</f>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIF(C87:C121, "works of poetry")</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2">
+        <f>COUNTIF(C2:C47,"no classification")</f>
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <f>COUNTIF(C48:C86,"no classification")</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <f>COUNTIF(C87:C121, "no classification")</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H9">
+        <f>SUM(H3:H8)</f>
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I3:I8)</f>
+        <v>39</v>
+      </c>
+      <c r="J9">
+        <f>SUM(J3:J8)</f>
+        <v>35</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <f>COUNTIF(C2:C26,"creative prose works")</f>
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <f>COUNTIF(C27:C51,"Creative Prose Works")</f>
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C52:C69, "creative prose works")</f>
-        <v>14</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(C2:C69,"creative prose works")</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <f>COUNTIF(C2:C26,"critical prose works")</f>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4">
-        <f>COUNTIF(C27:C51,"critical prose works")</f>
+      <c r="B51" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
-        <f>COUNTIF(C52:C69, "critical prose works")</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(C2:C69,"critical prose works")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B52" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <f>COUNTIF(C2:C26,"works of poetry")</f>
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <f>COUNTIF(C27:C51,"works of poetry")</f>
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C52:C69, "works of poetry")</f>
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(C2:C69,"works of poetry")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B53" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <f>COUNTIF(B2:B69, "1950")</f>
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <f>COUNTIF(B2:B69,"1980")</f>
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <f>COUNTIF(B2:B69,"2010")</f>
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <f>SUM(K3:K5)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B54" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B55" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B56" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B57" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B58" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B79" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B80" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B81" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B82" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1980</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B98" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B99" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B100" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B101" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B102" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B103" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B104" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B115" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B116" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B117" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="3">
+      <c r="B118" s="2">
         <v>2010</v>
       </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="2">
         <v>2010</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="2">
         <v>2010</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="2">
         <v>2010</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C69">
+  <sortState ref="A2:C125">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/work_classification_grouped_visualization.xlsx
+++ b/xls/work_classification_grouped_visualization.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="39">
   <si>
     <t>Subject Work Classification</t>
   </si>
@@ -68,15 +68,9 @@
     <t>works of poetry</t>
   </si>
   <si>
-    <t>critical prose works</t>
-  </si>
-  <si>
     <t>Type of Work</t>
   </si>
   <si>
-    <t>Critical Prose Works</t>
-  </si>
-  <si>
     <t>Works of Poetry</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>literary prose works</t>
-  </si>
-  <si>
     <t>drama</t>
   </si>
   <si>
@@ -137,42 +128,32 @@
     <t>Dramatic Works</t>
   </si>
   <si>
-    <t>Literary Prose Works</t>
-  </si>
-  <si>
     <t>Periodicals</t>
+  </si>
+  <si>
+    <t>prose works</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Prose Works</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,19 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,11 +231,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>General</a:t>
+              <a:t>Type</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Work Type by Year</a:t>
+              <a:t> of Work by Year</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -316,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Critical Prose Works</c:v>
+                  <c:v>Prose Works</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -369,10 +340,84 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>work_classification_grouped_vis!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dramatic Works</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$4:$K$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -390,7 +435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Literary Prose Works</c:v>
+                  <c:v>Periodicals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -443,13 +488,87 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>work_classification_grouped_vis!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Works of Poetry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>work_classification_grouped_vis!$H$6:$K$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>work_classification_grouped_vis!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,7 +583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Works of Poetry</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -517,13 +636,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,13 +710,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,34 +732,36 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="397877488"/>
-        <c:axId val="397883088"/>
+        <c:axId val="404042864"/>
+        <c:axId val="404046224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="6"/>
+                <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$G$4</c15:sqref>
+                          <c15:sqref>work_classification_grouped_vis!$G$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Dramatic Works</c:v>
+                        <c:v>Total</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -679,180 +800,6 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$4:$K$4</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$4:$J$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$G$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Periodicals</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$2:$J$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Cited 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited 2010</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$6:$K$6</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$6:$J$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$G$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$2:$K$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>work_classification_grouped_vis!$H$2:$J$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Cited 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited 2010</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
                           <c15:sqref>work_classification_grouped_vis!$H$9:$K$9</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
@@ -864,13 +811,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>46</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>39</c:v>
+                        <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>35</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -881,7 +828,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397877488"/>
+        <c:axId val="404042864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397883088"/>
+        <c:crossAx val="404046224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397883088"/>
+        <c:axId val="404046224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397877488"/>
+        <c:crossAx val="404042864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,19 +1559,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1905,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,1486 +1866,1387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(C2:C45,"prose works")</f>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(C46:C83,"prose works")</f>
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C84:C112, "prose works")</f>
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <f>COUNTIF(C2:C47,"critical prose works")</f>
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <f>COUNTIF(C48:C86,"critical prose works")</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C87:C121, "critical prose works")</f>
-        <v>0</v>
       </c>
       <c r="K3">
         <f>SUM(H3:J3)</f>
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2">
-        <f>COUNTIF(C2:C47,"dramatic works")</f>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <f>COUNTIF(C2:C45,"dramatic works")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <f>COUNTIF(C48:C86,"dramatic works")</f>
+      <c r="I4" s="1">
+        <f>COUNTIF(C46:C83,"dramatic works")</f>
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <f>COUNTIF(C87:C121, "dramatic works")</f>
+      <c r="J4" s="1">
+        <f>COUNTIF(C84:C112, "dramatic works")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K9" si="0">SUM(H4:J4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2">
-        <f>COUNTIF(C2:C47,"literary prose works")</f>
-        <v>16</v>
-      </c>
-      <c r="I5" s="2">
-        <f>COUNTIF(C48:C86,"literary prose works")</f>
-        <v>27</v>
-      </c>
-      <c r="J5" s="2">
-        <f>COUNTIF(C87:C121, "literary prose works")</f>
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2">
-        <f>COUNTIF(C2:C47,"periodicals")</f>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
+        <f>COUNTIF(C2:C45,"periodicals")</f>
         <v>2</v>
       </c>
-      <c r="I6" s="2">
-        <f>COUNTIF(C48:C86,"periodicals")</f>
+      <c r="I5" s="1">
+        <f>COUNTIF(C46:C83,"periodicals")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="2">
-        <f>COUNTIF(C87:C121, "periodicals")</f>
+      <c r="J5" s="1">
+        <f>COUNTIF(C84:C112, "periodicals")</f>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(C2:C45,"works of poetry")</f>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(C46:C83,"works of poetry")</f>
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(C84:C112, "works of poetry")</f>
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <f>COUNTIF(C2:C45,"other")</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f>COUNTIF(C46:C83,"other")</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>COUNTIF(C84:C112, "other")</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1">
+        <f>COUNTIF(C2:C45,"no classification")</f>
         <v>17</v>
       </c>
-      <c r="H7">
-        <f>COUNTIF(C2:C47,"works of poetry")</f>
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <f>COUNTIF(C48:C86,"works of poetry")</f>
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <f>COUNTIF(C87:C121, "works of poetry")</f>
-        <v>8</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="I8" s="1">
+        <f>COUNTIF(C46:C83,"no classification")</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>COUNTIF(C84:C112, "no classification")</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2">
-        <f>COUNTIF(C2:C47,"no classification")</f>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
-      </c>
-      <c r="I8" s="2">
-        <f>COUNTIF(C48:C86,"no classification")</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <f>COUNTIF(C87:C121, "no classification")</f>
-        <v>7</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9">
         <f>SUM(H3:H8)</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <f>SUM(I3:I8)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <f>SUM(J3:J8)</f>
-        <v>35</v>
-      </c>
-      <c r="K9" s="2">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B22" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1950</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
+      <c r="B47" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>23</v>
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>23</v>
+      <c r="B51" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>23</v>
+      <c r="B52" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>23</v>
+      <c r="B53" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>23</v>
+      <c r="B54" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>23</v>
+      <c r="B55" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>23</v>
+      <c r="B56" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>23</v>
+      <c r="B57" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>23</v>
+      <c r="B58" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>23</v>
+      <c r="B59" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>23</v>
+      <c r="B60" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>23</v>
+      <c r="B61" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>23</v>
+      <c r="B62" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>23</v>
+      <c r="B63" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>23</v>
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>23</v>
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>23</v>
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>23</v>
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>23</v>
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B72" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B76" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B77" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B78" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B79" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B80" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
+      <c r="B81" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>13</v>
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="A87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="1">
         <v>2010</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>23</v>
+      <c r="C87" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
         <v>2010</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>23</v>
+      <c r="C88" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
         <v>2010</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>23</v>
+      <c r="C89" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
         <v>2010</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>23</v>
+      <c r="C90" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="2">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
         <v>2010</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>23</v>
+      <c r="C91" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
         <v>2010</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>23</v>
+      <c r="C92" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1">
         <v>2010</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>23</v>
+      <c r="C93" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1">
         <v>2010</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>23</v>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1">
         <v>2010</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>23</v>
+      <c r="C95" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="2">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
         <v>2010</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>23</v>
+      <c r="C96" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
         <v>2010</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>23</v>
+      <c r="C97" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>2010</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>23</v>
+      <c r="C98" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>2010</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>23</v>
+      <c r="C99" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>2010</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>23</v>
+      <c r="C100" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1">
         <v>2010</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>23</v>
+      <c r="C101" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1">
         <v>2010</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>23</v>
+      <c r="C102" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="2">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
         <v>2010</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>23</v>
+      <c r="C103" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="A104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="1">
         <v>2010</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>23</v>
+      <c r="C104" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
         <v>2010</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>23</v>
+      <c r="C105" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="2">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
         <v>2010</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>23</v>
+      <c r="C106" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="A107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="1">
         <v>2010</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>28</v>
+      <c r="C107" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="A108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="1">
         <v>2010</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>28</v>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="A109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="1">
         <v>2010</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>28</v>
+      <c r="C109" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
         <v>2010</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>28</v>
+      <c r="C110" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" s="2">
+      <c r="A111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="1">
         <v>2010</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>28</v>
+      <c r="C111" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="A112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="1">
         <v>2010</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>13</v>
+      <c r="C112" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C125">
+  <sortState ref="A2:C121">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/work_classification_grouped_visualization.xlsx
+++ b/xls/work_classification_grouped_visualization.xlsx
@@ -732,8 +732,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="404042864"/>
-        <c:axId val="404046224"/>
+        <c:axId val="340221344"/>
+        <c:axId val="340220784"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -828,7 +828,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="404042864"/>
+        <c:axId val="340221344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404046224"/>
+        <c:crossAx val="340220784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404046224"/>
+        <c:axId val="340220784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404042864"/>
+        <c:crossAx val="340221344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/xls/work_classification_grouped_visualization.xlsx
+++ b/xls/work_classification_grouped_visualization.xlsx
@@ -732,8 +732,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="340221344"/>
-        <c:axId val="340220784"/>
+        <c:axId val="470449360"/>
+        <c:axId val="470449920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -828,7 +828,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340221344"/>
+        <c:axId val="470449360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340220784"/>
+        <c:crossAx val="470449920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340220784"/>
+        <c:axId val="470449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340221344"/>
+        <c:crossAx val="470449360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
